--- a/data/n2v/tables/model-1200-1325-20230828-79.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-79.xlsx
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
